--- a/output/fit_clients/fit_round_17.xlsx
+++ b/output/fit_clients/fit_round_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>5587031593.655952</v>
+        <v>4505570581.889256</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2226961185279129</v>
+        <v>0.2773120534438696</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3783144846728791</v>
+        <v>0.5658077858139626</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6258220821190531</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.966593690254706</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7344613368149161</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.722633046043615</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>10160069398.54451</v>
+        <v>5180619235.794868</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1430857795329883</v>
+        <v>0.3038735947090812</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.135707123474587</v>
+        <v>0.6366889322510894</v>
       </c>
       <c r="I3" t="n">
-        <v>4.240407508537056</v>
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.971870190324411</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5407475131320976</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.397478001031807</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9296690858713288</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.19590371639477</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>7647311469.780253</v>
+        <v>11597511009.18494</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1942112775017751</v>
+        <v>0.1129289723426651</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2915087732194369</v>
+        <v>0.127141176561847</v>
       </c>
       <c r="I4" t="n">
-        <v>4.332091995208128</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.842463156779132</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7465982317687836</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.089501478596539</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>7045984317.205253</v>
+        <v>14627571192.44189</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2059530641384661</v>
+        <v>0.07359863615336679</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3272911088763998</v>
+        <v>0.02218569634254574</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2327671346478</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.471112856112597</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6525687591647646</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.580262327182695</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>5069480269.314968</v>
+        <v>5153901044.675315</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2412979368721948</v>
+        <v>0.2612325010374386</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4350023234507535</v>
+        <v>0.5228984870882734</v>
       </c>
       <c r="I6" t="n">
-        <v>3.568054606282532</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.91857179208719</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7537661753713834</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.156751715340477</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>5542461770.459469</v>
+        <v>13074020913.87581</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2121992281964808</v>
+        <v>0.1226146638865035</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3463258900223909</v>
+        <v>0.15298805471582</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4722007054990512</v>
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9771776301193315</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4565858227295265</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.906150439465399</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9172074507141331</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.43799857481726</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>6317426835.341712</v>
+        <v>4502624115.267418</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2421434865604196</v>
+        <v>0.2676038170529005</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4375790814599784</v>
+        <v>0.5399007453149316</v>
       </c>
       <c r="I8" t="n">
-        <v>4.461978351325479</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.822796780626945</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7251803102397999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.680809424169054</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>9258055450.887558</v>
+        <v>11046782250.0401</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1256213214718328</v>
+        <v>0.1206930199058789</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0824853166280506</v>
+        <v>0.147860026675931</v>
       </c>
       <c r="I9" t="n">
-        <v>3.392326006829645</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.128012001941089</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7512244931417444</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.8964778608938</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>7919226048.113109</v>
+        <v>12122665472.9211</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1829121509096379</v>
+        <v>0.1127905065972696</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2570754154298335</v>
+        <v>0.1267716719959069</v>
       </c>
       <c r="I10" t="n">
-        <v>4.225126760758545</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.801750943370913</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7577917508633917</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.35408407389692</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>9091879868.303665</v>
+        <v>11435875717.55882</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1184099774297681</v>
+        <v>0.1326200850251763</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0605092118805268</v>
+        <v>0.179688151438906</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4911036358429836</v>
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9650008059032675</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2398152448018852</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.689379861537758</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8911822043626056</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.13426422571436</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>10185509734.79628</v>
+        <v>8751584861.915762</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1244694465971523</v>
+        <v>0.1454620574542803</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07897505241733449</v>
+        <v>0.2139577640039359</v>
       </c>
       <c r="I12" t="n">
-        <v>3.697940962399883</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.874224779254871</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7392660140821283</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.911095502387695</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>10549826520.96403</v>
+        <v>4404964301.323676</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1174399851540672</v>
+        <v>0.3252708153774247</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0575532231313076</v>
+        <v>0.6937887637855936</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5940319586893676</v>
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9738037945414703</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1670886706859403</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.621329233091514</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.9394675108719002</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13.16802098434649</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>10177317836.49296</v>
+        <v>12627556255.29357</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1361515216741515</v>
+        <v>0.1275721776590532</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1145754209565491</v>
+        <v>0.1662174925774096</v>
       </c>
       <c r="I14" t="n">
-        <v>4.041757787416401</v>
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3751925705073544</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.290606783302622</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5358295437162442</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.425984091022263</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>10033358898.75924</v>
+        <v>13116827575.0034</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1464592072134208</v>
+        <v>0.07488634308740201</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1459874262352021</v>
+        <v>0.02562202343095149</v>
       </c>
       <c r="I15" t="n">
-        <v>4.286249751872591</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.560084672319759</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6257929631388606</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.955774590457453</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>8270404675.397173</v>
+        <v>12877649200.83698</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1890809327204901</v>
+        <v>0.1035336099940776</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2758743791804376</v>
+        <v>0.1020690601582588</v>
       </c>
       <c r="I16" t="n">
-        <v>4.561303211885806</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.992617594091315</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5661214679607991</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.329811765124665</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>11468377597.94378</v>
+        <v>14498927678.46001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1011816850369534</v>
+        <v>0.09900219877174135</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008007104639909978</v>
+        <v>0.08997670379948357</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4715931326363481</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.123497694200822</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7705418263377383</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.287338832553944</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5018430370.859923</v>
+        <v>5084782400.08277</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2432305820337287</v>
+        <v>0.2158449120619467</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4408919346330685</v>
+        <v>0.4017788461578917</v>
       </c>
       <c r="I18" t="n">
-        <v>3.560414232393276</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.874258965549227</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7015771973197072</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.157284980844917</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>7407726612.578688</v>
+        <v>5687437688.180822</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1775084109836312</v>
+        <v>0.2302785668705792</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2406078673625667</v>
+        <v>0.4402959634402975</v>
       </c>
       <c r="I19" t="n">
-        <v>3.83546769240649</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.214698610719093</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7465982317687836</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.717266024656578</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>3832791088.295131</v>
+        <v>6122555811.767878</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3997982448559709</v>
+        <v>0.2417218226341763</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9180217648264779</v>
+        <v>0.4708330124540665</v>
       </c>
       <c r="I20" t="n">
-        <v>4.469618725214735</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.45935334135668</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7786194098440318</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.113034855523955</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>11868879332.74998</v>
+        <v>4293216554.292602</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1191747392777875</v>
+        <v>0.2300163566202202</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06283977416974094</v>
+        <v>0.4395962388660553</v>
       </c>
       <c r="I21" t="n">
-        <v>4.125801900198216</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.040949317057485</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.4735127848044645</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-12.51120501314677</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>9419098821.22201</v>
+        <v>14234615087.19927</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1523952288053149</v>
+        <v>0.1111453699526264</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.164077068266714</v>
+        <v>0.1223815212040638</v>
       </c>
       <c r="I22" t="n">
-        <v>4.186924891312264</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9785130626515838</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.784897071602388</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.783474577392927</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.88459447625615</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>6595053346.689401</v>
+        <v>12910082801.44721</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1898496273162849</v>
+        <v>0.1091574579089474</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2782169262642409</v>
+        <v>0.1170766526625428</v>
       </c>
       <c r="I23" t="n">
-        <v>3.652098719064347</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.185366325967514</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7656964762733395</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.128563199499276</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>10797457391.24769</v>
+        <v>7914028382.780169</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1273614426221034</v>
+        <v>0.1883279712823593</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08778822333291227</v>
+        <v>0.3283481559195126</v>
       </c>
       <c r="I24" t="n">
-        <v>4.011196291859378</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8.00929561713353</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7804918610724036</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.600541604314543</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>7869083591.405853</v>
+        <v>6673007294.094324</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1680998727024167</v>
+        <v>0.1935198349240327</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2119359552220583</v>
+        <v>0.3422029711726107</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5742127406022757</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.046292601403314</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7429532283629942</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.81277196585657</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>8433701624.465737</v>
+        <v>11118745455.80756</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298249652114484</v>
+        <v>0.1392296906294779</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.09529564915471991</v>
+        <v>0.1973263004473656</v>
       </c>
       <c r="I26" t="n">
-        <v>3.19367628570899</v>
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.973996086822468</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3386964147677773</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.254110627563044</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8548853170681179</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.84359571379931</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>4347380985.954522</v>
+        <v>6091841451.053565</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3368094525717092</v>
+        <v>0.2524001884083966</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7260674926291654</v>
+        <v>0.4993289043375332</v>
       </c>
       <c r="I27" t="n">
-        <v>4.27096900409408</v>
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3302913468181577</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.245705559613425</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5019669132138889</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.793632704664352</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>4295495299.726357</v>
+        <v>5380934661.662776</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2683116892418487</v>
+        <v>0.281365137322101</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5173249873309272</v>
+        <v>0.5766236955168814</v>
       </c>
       <c r="I28" t="n">
-        <v>3.361764511272621</v>
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3785041300291768</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.527511386959011</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5676935652502563</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.826359918046114</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>4221119296.961165</v>
+        <v>5790106478.714691</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.323303392771312</v>
+        <v>0.2795774181270917</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6849086485678482</v>
+        <v>0.5718530542056456</v>
       </c>
       <c r="I29" t="n">
-        <v>3.980634796302354</v>
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.978641653851598</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2891830742379745</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.860336732837781</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8248058978986502</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13.63578122513523</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>8246097490.836866</v>
+        <v>8869754779.710814</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1867794216247728</v>
+        <v>0.1408662427576985</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2688606729112535</v>
+        <v>0.2016935429162477</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5655592142748384</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.802377824931548</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7344613368149161</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.886848911366774</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7386759486.83855</v>
+        <v>11910158156.75872</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.199288630233992</v>
+        <v>0.08247340103058036</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3069816774148909</v>
+        <v>0.04586856559233328</v>
       </c>
       <c r="I31" t="n">
-        <v>4.293890125761847</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.122731185978047</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4887648698346917</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.652566210715786</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8601942955.237284</v>
+        <v>11723363232.91977</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1364211232400145</v>
+        <v>0.08870302910003822</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1153970142985033</v>
+        <v>0.06249272060770522</v>
       </c>
       <c r="I32" t="n">
-        <v>3.422887502386669</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.874079883687203</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.5347521949749173</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-13.56912378318555</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>9730243135.960169</v>
+        <v>12008685825.03017</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1127951680820664</v>
+        <v>0.1132066763847229</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04339844339649531</v>
+        <v>0.1278822472954593</v>
       </c>
       <c r="I33" t="n">
-        <v>3.201316659598246</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.911553908287775</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7562880156275993</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.21420640426421</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>4400599978.830029</v>
+        <v>13549725503.30377</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3196410573028206</v>
+        <v>0.08196633649362137</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6737479180013037</v>
+        <v>0.04451543192669252</v>
       </c>
       <c r="I34" t="n">
-        <v>4.102880778530449</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.471808157359312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.2950021861263116</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.428235565166921</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9811346805.325289</v>
+        <v>14098204558.6612</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1265464247299977</v>
+        <v>0.1135213553854111</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08530450899844905</v>
+        <v>0.1287219880358688</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5982916290148853</v>
+        <v>5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3492988346913199</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.798863451427192</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6509989195807376</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.221114940187562</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6470989319.248734</v>
+        <v>11743261503.65351</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2388259389337737</v>
+        <v>0.1032743390430917</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4274690695505762</v>
+        <v>0.1013771792895914</v>
       </c>
       <c r="I36" t="n">
-        <v>4.507820594661014</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.858203945878713</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7268383055769568</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.678562165660424</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>7400102939.710951</v>
+        <v>4394525996.082388</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1624707142313026</v>
+        <v>0.2253097196108695</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1947814587121128</v>
+        <v>0.4270362814541289</v>
       </c>
       <c r="I37" t="n">
-        <v>3.506931615168484</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.410968865505946</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.3227209786899983</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-9.86538843930591</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>10298282270.69193</v>
+        <v>9186834660.287901</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1040300199431238</v>
+        <v>0.137144798680911</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01668722111873877</v>
+        <v>0.1917626349192095</v>
       </c>
       <c r="I38" t="n">
-        <v>3.124912920705686</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.898724225069947</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7366057796925451</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.833391368780956</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>6706173517.165726</v>
+        <v>11077380320.58045</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1738142544353128</v>
+        <v>0.1354932688563096</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2293501641125145</v>
+        <v>0.187355423523831</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5400044521277224</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.593066556488033</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7823538889323691</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.05401122215935</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>10579660326.1636</v>
+        <v>8959164242.85412</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1317164669789844</v>
+        <v>0.1552484196401898</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1010598785037883</v>
+        <v>0.2400732881092607</v>
       </c>
       <c r="I40" t="n">
-        <v>4.064678909084169</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.11441885280861</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7622616803947826</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.130814755087043</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>6378577434.320992</v>
+        <v>11425522869.31149</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2008099334356284</v>
+        <v>0.1027074851122954</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.311617750568091</v>
+        <v>0.09986449385932758</v>
       </c>
       <c r="I41" t="n">
-        <v>3.736142831846163</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.964049093623037</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7184582244629045</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.405115395635052</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>5352260943.918461</v>
+        <v>11744879757.05983</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2275704347681289</v>
+        <v>0.09634636568499653</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3931686482854745</v>
+        <v>0.08288944587064193</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5794162733228312</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.915431170100162</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.709260611380212</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.269781057504077</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>7818365904.144491</v>
+        <v>10058205595.01137</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1631597888407584</v>
+        <v>0.09843996631875181</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1968813690350605</v>
+        <v>0.08847635107393402</v>
       </c>
       <c r="I43" t="n">
-        <v>3.720862084067651</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.580984630452194</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5698508475366818</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.816032320281442</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>7393785762.209854</v>
+        <v>4758668963.77216</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2037047459094679</v>
+        <v>0.3242126573093284</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3204395044295698</v>
+        <v>0.6909650023091993</v>
       </c>
       <c r="I44" t="n">
-        <v>4.393214986322175</v>
+        <v>8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9777118064117293</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3897356105511844</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.116855891753971</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8287018643553435</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.4571813953529</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>3670960824.17557</v>
+        <v>15086037610.31129</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4266989747436991</v>
+        <v>0.06528491214464614</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.568943585775062</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.090826691453806</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4901515953638848</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5.712205215823889</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>6423799097.754846</v>
+        <v>3920292185.257708</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1671829837230357</v>
+        <v>0.396888187531287</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2091417953351924</v>
+        <v>0.8849042337951862</v>
       </c>
       <c r="I46" t="n">
-        <v>3.132553294594942</v>
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9735936795077894</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3574942177330823</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.214224705632792</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9260652261590692</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.30707981754859</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>5053969566.88484</v>
+        <v>10708831203.91487</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.246184753100305</v>
+        <v>0.1024877868649918</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4498945799683198</v>
+        <v>0.09927821524380522</v>
       </c>
       <c r="I47" t="n">
-        <v>3.62917759739658</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.96176539737108</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7015771973197072</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.069778549023065</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>5322397833.874588</v>
+        <v>14106753656.48716</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2879046621143854</v>
+        <v>0.1082534229480744</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5770333054545178</v>
+        <v>0.1146641784086541</v>
       </c>
       <c r="I48" t="n">
-        <v>4.469618725214735</v>
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9722244809526218</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2777888124945806</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4.13451930039429</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.918790168183958</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.24128406328487</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9908040365.903296</v>
+        <v>3782036377.23489</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1163228607713616</v>
+        <v>0.2985050849313616</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.05414885879823086</v>
+        <v>0.6223627256539567</v>
       </c>
       <c r="I49" t="n">
-        <v>3.361764511272621</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.052672384562555</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7086764522424508</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.12085666028646</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>6807122428.843534</v>
+        <v>7342285228.382322</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2035599219030662</v>
+        <v>0.1858688606545289</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3199981626330786</v>
+        <v>0.3217858642672345</v>
       </c>
       <c r="I50" t="n">
-        <v>4.041757787416401</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.775284868935807</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7572912796872817</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.370540724809827</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>4934685104.386206</v>
+        <v>11768370767.0341</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2531973172694291</v>
+        <v>0.1144055100448977</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4712649159043765</v>
+        <v>0.1310814104529036</v>
       </c>
       <c r="I51" t="n">
-        <v>3.644458345175091</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.820473206729715</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7537661753713834</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.254850300697952</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6559405188.653115</v>
+        <v>6962993436.576001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2136434035854634</v>
+        <v>0.1610081827897416</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3507269211529193</v>
+        <v>0.2554435789809451</v>
       </c>
       <c r="I52" t="n">
-        <v>4.087600030751937</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.987363850707103</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6643677180933587</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.29999051116007</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>6148052488.059923</v>
+        <v>4381776647.276441</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1938536556600041</v>
+        <v>0.3156340524247506</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2904189437772529</v>
+        <v>0.668072454660001</v>
       </c>
       <c r="I53" t="n">
-        <v>3.47637011961146</v>
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9688772741213088</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.08052496518048066</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.534765527586055</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.9264755636691443</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12.99474574579683</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>5475437183.507188</v>
+        <v>7482394537.377024</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2645492261993546</v>
+        <v>0.2128448469329562</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5058591244559582</v>
+        <v>0.3937729833351869</v>
       </c>
       <c r="I54" t="n">
-        <v>4.225126760758545</v>
+        <v>8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2719246260592891</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.999044907262076</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.4300265897430877</v>
+      </c>
+      <c r="N54" t="n">
+        <v>5.601486887599679</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>10482338678.28133</v>
+        <v>11080129319.60795</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1416853791489506</v>
+        <v>0.1193841616685034</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1314394938415301</v>
+        <v>0.1443672560018753</v>
       </c>
       <c r="I55" t="n">
-        <v>4.332091995208128</v>
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3175935873045467</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.767158204040419</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5621388723851668</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7.475619243662917</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>9529019493.410179</v>
+        <v>4411246791.547132</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1610829467881252</v>
+        <v>0.2838354957603424</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1905523271495953</v>
+        <v>0.5832160026599357</v>
       </c>
       <c r="I56" t="n">
-        <v>4.477259099103991</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.984073309932148</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7349988170651083</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.715903031370017</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>6603792956.998116</v>
+        <v>5888750043.513577</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1654027673357767</v>
+        <v>0.1672495237057737</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2037167009878061</v>
+        <v>0.2720989904653952</v>
       </c>
       <c r="I57" t="n">
-        <v>3.186035911819734</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.697987271901118</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6265734352769863</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.833481433638608</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>8439253879.177395</v>
+        <v>10323011404.15081</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1350160412653761</v>
+        <v>0.1568130612884046</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.11111511782076</v>
+        <v>0.2442486329313622</v>
       </c>
       <c r="I58" t="n">
-        <v>3.323562641826341</v>
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9764732719360807</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4953970830479411</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.410811295843208</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8753182307174083</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.09555331850496</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11552826585.69326</v>
+        <v>4098651991.327134</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1179003934575431</v>
+        <v>0.3853686952057045</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.05895628767028907</v>
+        <v>0.8541637427122992</v>
       </c>
       <c r="I59" t="n">
-        <v>3.972994422413098</v>
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9738854510390339</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3836735926826805</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3.833238209418553</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.9102401807290061</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.37156540516157</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>10744065436.06394</v>
+        <v>8011234419.42487</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1428660825954844</v>
+        <v>0.1268622620174136</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1350376112611726</v>
+        <v>0.1643230379578289</v>
       </c>
       <c r="I60" t="n">
-        <v>4.477259099103991</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.754854727594254</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6824168767261785</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.893482806929316</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>7499956929.49454</v>
+        <v>6420207446.31042</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1410986182918413</v>
+        <v>0.1562607405429768</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1296513780641708</v>
+        <v>0.2427747302219511</v>
       </c>
       <c r="I61" t="n">
-        <v>3.086711051259407</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.793202308001522</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6792064217246643</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.790926126491764</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>10552584878.52979</v>
+        <v>5551343593.751595</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1427279919884273</v>
+        <v>0.274615496997143</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1346167890638634</v>
+        <v>0.5586118550331409</v>
       </c>
       <c r="I62" t="n">
-        <v>4.393214986322175</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.426189750676272</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7865060605413486</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.3039314601507</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>4280987224.87365</v>
+        <v>4295663073.393737</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3432567566335988</v>
+        <v>0.3634261843461171</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7457152349330611</v>
+        <v>0.7956087699451997</v>
       </c>
       <c r="I63" t="n">
-        <v>4.286249751872591</v>
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.364109112623511</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.81747788338498</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.7258414247227341</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.699350611069702</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>10753422920.50176</v>
+        <v>10948070256.25547</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1271522184246242</v>
+        <v>0.1138857909034326</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.08715062611764969</v>
+        <v>0.129694507177806</v>
       </c>
       <c r="I64" t="n">
-        <v>3.988275170191609</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.098221921336012</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7339229372264165</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.580236823192319</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>4257176376.446423</v>
+        <v>11162582710.4666</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2836478179952611</v>
+        <v>0.08987403686239427</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5640608482107536</v>
+        <v>0.06561762860358579</v>
       </c>
       <c r="I65" t="n">
-        <v>3.522212362946996</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.504892608160126</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5746656520362866</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.988420432565607</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>6168546100.486166</v>
+        <v>4720588489.384552</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1995791682424115</v>
+        <v>0.2580221412518843</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.307867073211974</v>
+        <v>0.5143314397244305</v>
       </c>
       <c r="I66" t="n">
-        <v>3.5909757279503</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.273984911951775</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.727938752091567</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.284790129879564</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>4767987871.451626</v>
+        <v>12547518409.91881</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2521608784281485</v>
+        <v>0.08037168124039641</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4681064355423906</v>
+        <v>0.04025999390854516</v>
       </c>
       <c r="I67" t="n">
-        <v>3.506931615168484</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.101663773499106</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.461155769194263</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-12.32477915738437</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>6602575691.589283</v>
+        <v>11230474099.97112</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1769382123840212</v>
+        <v>0.1196518560158965</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2388702239941698</v>
+        <v>0.1450816152345908</v>
       </c>
       <c r="I68" t="n">
-        <v>3.407606754608157</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.749285333506538</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.5550506652718686</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-13.85029863894391</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4504097155.328779</v>
+        <v>12860485506.7224</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3163671010768828</v>
+        <v>0.09572836883619017</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6637707480673317</v>
+        <v>0.08124028234129137</v>
       </c>
       <c r="I69" t="n">
-        <v>4.156363395755241</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.794602617934595</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7306730174184943</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.818857730435292</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>8555810602.65133</v>
+        <v>12861836836.76271</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1552197438298203</v>
+        <v>0.08207336039147693</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1726845951961481</v>
+        <v>0.04480103194140657</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6639853685637794</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.779356194142043</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.6918426646454162</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.057497098766282</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>11083096209.03553</v>
+        <v>3411017293.691551</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09855419545212558</v>
+        <v>0.440018428747293</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>3.186035911819734</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.591567960170119</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7823538889323691</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.055509818477264</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>4789662868.904584</v>
+        <v>6063653256.545684</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2553948291312126</v>
+        <v>0.2298145063779343</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4779616912318027</v>
+        <v>0.4390575887764773</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5006967366416951</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.032211586262441</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7627545783062756</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.22287997986307</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>3666742835.064821</v>
+        <v>12392376485.66318</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3636114039004948</v>
+        <v>0.1206928866089851</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8077447065304436</v>
+        <v>0.1478596709647712</v>
       </c>
       <c r="I73" t="n">
-        <v>3.888950309631282</v>
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9709186385061988</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.286856461028209</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.741097023433783</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9524174089589909</v>
+      </c>
+      <c r="N73" t="n">
+        <v>13.30725115574604</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>8256157658.519371</v>
+        <v>12671631842.18778</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1437210527073192</v>
+        <v>0.08020461237015629</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.137643077402309</v>
+        <v>0.03981416010175153</v>
       </c>
       <c r="I74" t="n">
-        <v>3.461089371832948</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.622604808468088</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5793881259133509</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.965157709798929</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>4910535247.324496</v>
+        <v>4198135090.461491</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3029839813919745</v>
+        <v>0.2470807674476179</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6229865560597645</v>
+        <v>0.4851336943413609</v>
       </c>
       <c r="I75" t="n">
-        <v>4.339732369097383</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.886154655711101</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.687481473608339</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.86347481645568</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>11118255652.53102</v>
+        <v>8685427866.211037</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1046035633957784</v>
+        <v>0.1818554243187842</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01843505771054061</v>
+        <v>0.3110757565295259</v>
       </c>
       <c r="I76" t="n">
-        <v>0.6555777542682795</v>
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9715048853814943</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2351892706719689</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.384196527601803</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8866198810223038</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.34820109284427</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7906086242.689903</v>
+        <v>12429186819.60964</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.172282815819193</v>
+        <v>0.0967319928044786</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.224683203938941</v>
+        <v>0.08391851613630212</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7607683055421226</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.85090015630023</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7246256747337474</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.641613338374719</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>11756211386.4415</v>
+        <v>10650808066.90399</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1065027140838942</v>
+        <v>0.1126375212532327</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02422259665056542</v>
+        <v>0.1263634209661514</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5384514979160452</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.776748228696315</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7240700469001747</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.704652709307179</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>7581229894.150099</v>
+        <v>7537398028.144216</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1468417084751657</v>
+        <v>0.1852276959219762</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.147153074101277</v>
+        <v>0.3200748757803612</v>
       </c>
       <c r="I79" t="n">
-        <v>3.247158902933782</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.078634301735775</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7632467341359488</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.186300380983202</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>4241111409.62642</v>
+        <v>4242855797.210982</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2853398704059503</v>
+        <v>0.3469590413531553</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5692172685394334</v>
+        <v>0.7516651613183181</v>
       </c>
       <c r="I80" t="n">
-        <v>3.529852736836252</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.235416862416365</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7772081452728453</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.308746043040541</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>6368452302.975541</v>
+        <v>4644075810.668365</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1743942338205285</v>
+        <v>0.2182789367200511</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.231117613792707</v>
+        <v>0.4082741943193567</v>
       </c>
       <c r="I81" t="n">
-        <v>3.239518529044526</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.121993871646365</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.4579427509254699</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-12.28084889015576</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>3863041283.667375</v>
+        <v>15323342970.92731</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2969921198747373</v>
+        <v>0.08478681463078784</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6047267454658769</v>
+        <v>0.05204205554642388</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5300774243326011</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.619831842358193</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.6298553601358037</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-15.21693904507427</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>7792332738.015145</v>
+        <v>13695460479.4996</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1468974013924834</v>
+        <v>0.1086355235902489</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1473227946661994</v>
+        <v>0.1156838380474252</v>
       </c>
       <c r="I83" t="n">
-        <v>3.338843389604853</v>
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9714542172043006</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.6680764953487606</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6.122317057754334</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9508840577736025</v>
+      </c>
+      <c r="N83" t="n">
+        <v>12.89536409771772</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>7237402679.58016</v>
+        <v>6670125713.04434</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.190372043811707</v>
+        <v>0.2375863691595561</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2798089567592864</v>
+        <v>0.4597972942932987</v>
       </c>
       <c r="I84" t="n">
-        <v>4.018836665748633</v>
+        <v>7</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9788616278702802</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3447529899552754</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.260167202750543</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.867193655652214</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.08370591029374</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>8777664056.896015</v>
+        <v>7379918271.319638</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1441346310133669</v>
+        <v>0.17036871599056</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1389034305517344</v>
+        <v>0.2804227516092208</v>
       </c>
       <c r="I85" t="n">
-        <v>3.690300588510627</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.803656967311269</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7360710347380894</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.91776372745052</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>5917587215.876451</v>
+        <v>9475201438.646448</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2275194958492201</v>
+        <v>0.1628272200849795</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3930134152233525</v>
+        <v>0.2602977946159098</v>
       </c>
       <c r="I86" t="n">
-        <v>3.927152179077562</v>
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9749723594480509</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.383480104311776</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3.53248736124161</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8785193200490283</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.03789903973896</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>9091516112.330631</v>
+        <v>11115211764.01499</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1195671697183335</v>
+        <v>0.1399809282120215</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.06403568056628073</v>
+        <v>0.1993310252698325</v>
       </c>
       <c r="I87" t="n">
-        <v>3.170755164041222</v>
+        <v>6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2861071074010599</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.435114364330894</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.582910174335272</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.223089122374546</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>8272524690.35785</v>
+        <v>11956759751.79355</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.142170154097071</v>
+        <v>0.09682977696581477</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1329168141547374</v>
+        <v>0.08417945933194335</v>
       </c>
       <c r="I88" t="n">
-        <v>3.430527876275925</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.961478604306579</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.715041423347665</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.33934986264672</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>5033580129.103256</v>
+        <v>11903959187.02102</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2648749946963743</v>
+        <v>0.1271851991605225</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5068518828893637</v>
+        <v>0.1651848160716115</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6654685522775984</v>
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2181397660913041</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.672380328496878</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7520385660692972</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.368390992889065</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>7291462787.400423</v>
+        <v>10980287048.97314</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1638137469567813</v>
+        <v>0.1028167191772622</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1988742641145884</v>
+        <v>0.1001559918442346</v>
       </c>
       <c r="I90" t="n">
-        <v>3.484010493500716</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.229121821168226</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7086764522424508</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.944407223680789</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>9541086489.69179</v>
+        <v>15157147382.28895</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1320527375326937</v>
+        <v>0.07845823689684367</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1020846412759868</v>
+        <v>0.03515384711681933</v>
       </c>
       <c r="I91" t="n">
-        <v>3.675019840732115</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.751248702655787</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7218375253832092</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.685501805008397</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>7665489142.142081</v>
+        <v>4343406129.910432</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.187599914804412</v>
+        <v>0.2285645827967904</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2713610728304922</v>
+        <v>0.435722088945889</v>
       </c>
       <c r="I92" t="n">
-        <v>4.19456526520152</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.27787152821948</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.3190064375161943</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-9.658000278543366</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>4151112424.36064</v>
+        <v>10770949380.65352</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.303515410135888</v>
+        <v>0.09630334368325329</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.6246060507994365</v>
+        <v>0.08277463894829004</v>
       </c>
       <c r="I93" t="n">
-        <v>0.6059915154690555</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.134830867906585</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.687481473608339</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.614798604260196</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>4243115849.368888</v>
+        <v>8286691998.675958</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2802664603599921</v>
+        <v>0.1618411400127197</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5537563794254544</v>
+        <v>0.257666377812845</v>
       </c>
       <c r="I94" t="n">
-        <v>3.468729745722205</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.1946343878421</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7527519047291108</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.860403706740115</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>8183470846.655358</v>
+        <v>5796284740.698556</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1866083961946462</v>
+        <v>0.2277618541978142</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2683394839699094</v>
+        <v>0.4335799571017622</v>
       </c>
       <c r="I95" t="n">
-        <v>4.454337977436223</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.181216909685226</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7486625854802789</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.792034799920351</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>4656448670.213185</v>
+        <v>9448797708.361143</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3347050854377067</v>
+        <v>0.1602328112771713</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7196545698377512</v>
+        <v>0.2533744512455883</v>
       </c>
       <c r="I96" t="n">
-        <v>4.546022464107295</v>
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9732992155345234</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.3329424156582181</v>
+      </c>
+      <c r="L96" t="n">
+        <v>4.189672903557928</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.9160755513878085</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.13183812419824</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>7671662469.185979</v>
+        <v>6709288282.256292</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2045208084039292</v>
+        <v>0.2264392490061683</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3229264021221768</v>
+        <v>0.4300505018140775</v>
       </c>
       <c r="I97" t="n">
-        <v>4.576583959664318</v>
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9813570035988455</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3624685870080222</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.933622245607829</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7942802239906337</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12.95198223420484</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>5344348460.319658</v>
+        <v>4505751910.893807</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1999703290185681</v>
+        <v>0.245908339365317</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3090591103883725</v>
+        <v>0.482004996132217</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3499401665351861</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.840506545439886</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7039622046899167</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.238737548358448</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>6572188265.555362</v>
+        <v>10617042762.92463</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2124307481143077</v>
+        <v>0.1028804022353879</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3470314320039722</v>
+        <v>0.1003259340973405</v>
       </c>
       <c r="I99" t="n">
-        <v>0.3841250165303548</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.907612688403593</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7003775656097365</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.099938623791137</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>9424889775.897945</v>
+        <v>6177607655.173467</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1236755630798819</v>
+        <v>0.2128548547266194</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.07655574372382337</v>
+        <v>0.3937996897631413</v>
       </c>
       <c r="I100" t="n">
-        <v>3.399966380718901</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.156762298109882</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.3358752884880223</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3.560743471650564</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>10808607210.50232</v>
+        <v>13184718739.04288</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1572805891538171</v>
+        <v>0.1199958521159057</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1789648880852988</v>
+        <v>0.1459995905017297</v>
       </c>
       <c r="I101" t="n">
-        <v>4.958602654127116</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.095790059792883</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.4223656789648113</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5.351523519503344</v>
       </c>
     </row>
   </sheetData>
